--- a/项目实现&测试/文档/SE2020-G16-项目测试用例.xlsx
+++ b/项目实现&测试/文档/SE2020-G16-项目测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="134">
   <si>
     <t>[基于Vue+SpringBoot框架的
 个性化选课网站]项目测试用例</t>
@@ -389,16 +389,34 @@
     <t>5.1.1</t>
   </si>
   <si>
+    <t>已登录，课程已选择完毕</t>
+  </si>
+  <si>
+    <t>弹出用户确认按钮，确认是否导出，点击取消就返回前一个页面，点击确认就继续操作</t>
+  </si>
+  <si>
     <t>5.2 课表微调</t>
   </si>
   <si>
     <t>5.2.1</t>
   </si>
   <si>
+    <t>已登录，课程已确认完毕，课程样式已选择完毕</t>
+  </si>
+  <si>
+    <t>选择系统给定的几种课表样式，可以自行选择系统给的还是自己创建</t>
+  </si>
+  <si>
     <t>5.3 课表格式选择导出</t>
   </si>
   <si>
     <t>5.3.1</t>
+  </si>
+  <si>
+    <t>已登录，课程已确认完毕，课程样式已选择完毕，课程微调已完毕</t>
+  </si>
+  <si>
+    <t>选择课表导出时确定的格式，弹出提示框，点击确认之后可以进行导出课表，点击取消返回上一个页面</t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -462,21 +480,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -491,17 +494,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,17 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +520,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,25 +548,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,11 +580,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -613,187 +631,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,6 +1168,60 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1231,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,80 +1269,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1259,145 +1277,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,8 +1855,8 @@
   <sheetPr/>
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2630,7 +2648,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" ht="54" spans="2:14">
       <c r="B31" s="7" t="s">
         <v>121</v>
       </c>
@@ -2640,50 +2658,74 @@
       <c r="D31" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="31"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" ht="40.5" spans="2:14">
       <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="I32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" ht="27" spans="2:14">
+    <row r="33" ht="54" spans="2:14">
       <c r="B33" s="15"/>
       <c r="C33" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="I33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>

--- a/项目实现&测试/文档/SE2020-G16-项目测试用例.xlsx
+++ b/项目实现&测试/文档/SE2020-G16-项目测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
   <si>
     <t>[基于Vue+SpringBoot框架的
 个性化选课网站]项目测试用例</t>
@@ -62,58 +62,73 @@
     <t>审查者</t>
   </si>
   <si>
-    <t>1 登陆</t>
-  </si>
-  <si>
-    <t>1.1 用户登陆</t>
+    <t>1 账号</t>
+  </si>
+  <si>
+    <t>1.1 用户注册</t>
   </si>
   <si>
     <t>1.1.1</t>
   </si>
   <si>
-    <t>用户输入账号密码登录</t>
+    <t>用户输入账号密码用于注册</t>
   </si>
   <si>
     <t>成功进入网页</t>
   </si>
   <si>
+    <t>输入合法的账号密码</t>
+  </si>
+  <si>
+    <t>显示注册成功并可以进行账号登录</t>
+  </si>
+  <si>
+    <t>1.2 用户登录</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>用户输入账号密码用于登录</t>
+  </si>
+  <si>
     <t>输入正确的账号密码</t>
   </si>
   <si>
-    <t>显示登录成功并可以进行账号绑定</t>
-  </si>
-  <si>
-    <t>1.2 用户账号绑定</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>用户输入选课网账号密码</t>
+    <t>显示登陆成功</t>
+  </si>
+  <si>
+    <t>1.3 修改密码</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>用户修改密码</t>
   </si>
   <si>
     <t>用户登录成功</t>
   </si>
   <si>
+    <t>输入正确的旧密码和合法的新密码</t>
+  </si>
+  <si>
+    <t>显示修改成功并更新到数据库</t>
+  </si>
+  <si>
+    <t>1.4 账号绑定</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>用户绑定选课网账号</t>
+  </si>
+  <si>
     <t>输入正确的选课网账号密码</t>
   </si>
   <si>
-    <t>显示绑定成功并可以进行选课及查看已修课程</t>
-  </si>
-  <si>
-    <t>1.3用户设置</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>用户修改相关账户信息</t>
-  </si>
-  <si>
-    <t>输入正确的用户信息格式</t>
-  </si>
-  <si>
-    <t>显示秀改成功并更新到数据库</t>
+    <t>显示绑定成功并且更新到数据库</t>
   </si>
   <si>
     <t>2 选课调整课表</t>
@@ -378,45 +393,6 @@
   </si>
   <si>
     <t>4.3.3</t>
-  </si>
-  <si>
-    <t>5 导出课表</t>
-  </si>
-  <si>
-    <t>5.1 课表定制</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>已登录，课程已选择完毕</t>
-  </si>
-  <si>
-    <t>弹出用户确认按钮，确认是否导出，点击取消就返回前一个页面，点击确认就继续操作</t>
-  </si>
-  <si>
-    <t>5.2 课表微调</t>
-  </si>
-  <si>
-    <t>5.2.1</t>
-  </si>
-  <si>
-    <t>已登录，课程已确认完毕，课程样式已选择完毕</t>
-  </si>
-  <si>
-    <t>选择系统给定的几种课表样式，可以自行选择系统给的还是自己创建</t>
-  </si>
-  <si>
-    <t>5.3 课表格式选择导出</t>
-  </si>
-  <si>
-    <t>5.3.1</t>
-  </si>
-  <si>
-    <t>已登录，课程已确认完毕，课程样式已选择完毕，课程微调已完毕</t>
-  </si>
-  <si>
-    <t>选择课表导出时确定的格式，弹出提示框，点击确认之后可以进行导出课表，点击取消返回上一个页面</t>
   </si>
 </sst>
 </file>
@@ -424,10 +400,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -467,21 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,32 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,29 +466,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +487,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,9 +510,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,11 +540,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -631,13 +607,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,24 +751,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -679,67 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,66 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -967,6 +943,17 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -979,6 +966,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1012,7 +1012,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1038,7 +1038,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1057,19 +1057,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1148,6 +1135,19 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1168,15 +1168,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,6 +1187,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1230,7 +1245,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,30 +1269,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1277,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,137 +1289,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,51 +1473,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1525,13 +1537,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1853,10 +1871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1883,7 +1901,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="28"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" ht="15" spans="2:14">
       <c r="B2" s="3" t="s">
@@ -1900,7 +1918,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="29"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" ht="14.25" spans="2:14">
       <c r="B3" s="5" t="s">
@@ -1939,7 +1957,7 @@
       <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1970,7 +1988,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="31"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" ht="27" spans="2:14">
       <c r="B5" s="11"/>
@@ -1984,34 +2002,34 @@
         <v>24</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" ht="27.75" spans="2:14">
-      <c r="B6" s="15"/>
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" ht="27" spans="2:14">
+      <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -2024,67 +2042,69 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" ht="27" spans="2:14">
-      <c r="B7" s="11" t="s">
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" ht="27.75" spans="2:14">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="J7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" ht="27" spans="2:14">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" ht="27" spans="2:14">
-      <c r="B8" s="11"/>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="32"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" ht="27" spans="2:14">
       <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
@@ -2105,18 +2125,16 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="32"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" ht="27" spans="2:14">
       <c r="B10" s="11"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>53</v>
@@ -2132,322 +2150,322 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" ht="112" customHeight="1" spans="2:14">
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" ht="27" spans="2:14">
       <c r="B11" s="11"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" ht="109" customHeight="1" spans="2:14">
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" ht="112" customHeight="1" spans="2:14">
       <c r="B12" s="11"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" ht="40.5" spans="2:14">
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" ht="109" customHeight="1" spans="2:14">
       <c r="B13" s="11"/>
-      <c r="C13" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="G13" s="23"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" ht="27" spans="2:14">
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" ht="40.5" spans="2:14">
       <c r="B14" s="11"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="32"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" ht="27" spans="2:14">
       <c r="B15" s="11"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="G15" s="23"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" ht="40.5" spans="2:14">
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" ht="27" spans="2:14">
       <c r="B16" s="11"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="J16" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="32"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" ht="40.5" spans="2:14">
-      <c r="B17" s="15"/>
-      <c r="C17" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="32"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" ht="40.5" spans="2:14">
-      <c r="B18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" ht="40.5" spans="2:14">
+      <c r="B19" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" ht="27" spans="2:14">
-      <c r="B19" s="11"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="14"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" ht="27" spans="2:14">
-      <c r="B20" s="11"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" ht="40.5" spans="2:14">
-      <c r="B21" s="11"/>
-      <c r="C21" s="19"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" ht="27" spans="2:14">
+      <c r="B21" s="28"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" s="14"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="22" ht="27" spans="2:14">
-      <c r="B22" s="11"/>
-      <c r="C22" s="21"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" ht="40.5" spans="2:14">
+      <c r="B22" s="28"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="11"/>
-      <c r="C23" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" ht="27" spans="2:14">
+      <c r="B23" s="28"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>101</v>
@@ -2463,94 +2481,96 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="32"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:14">
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="28"/>
+      <c r="C24" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D24" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" ht="27" spans="2:14">
-      <c r="B25" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:14">
+      <c r="B25" s="28"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="33"/>
+      <c r="E25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" ht="27" spans="2:14">
-      <c r="B26" s="11"/>
-      <c r="C26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="B26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14" t="s">
+      <c r="J26" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="32"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" ht="27" spans="2:14">
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>47</v>
@@ -2569,21 +2589,19 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="32"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" ht="27" spans="2:14">
-      <c r="B28" s="11"/>
-      <c r="C28" s="18" t="s">
-        <v>113</v>
-      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2591,162 +2609,105 @@
         <v>54</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="32"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" ht="27" spans="2:14">
-      <c r="B29" s="11"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="D29" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" ht="27.75" spans="2:14">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="36"/>
-    </row>
-    <row r="31" ht="54" spans="2:14">
-      <c r="B31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" ht="27" spans="2:14">
+      <c r="B30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" ht="27.75" spans="2:14">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="31"/>
-    </row>
-    <row r="32" ht="40.5" spans="2:14">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" ht="54" spans="2:14">
-      <c r="B33" s="15"/>
-      <c r="C33" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="32"/>
+      <c r="J31" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/项目实现&测试/文档/SE2020-G16-项目测试用例.xlsx
+++ b/项目实现&测试/文档/SE2020-G16-项目测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
   <si>
     <t>[基于Vue+SpringBoot框架的
 个性化选课网站]项目测试用例</t>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>弹出管理员登录成功</t>
+  </si>
+  <si>
+    <t>3.3 课表管理</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>已登录管理员账户</t>
+  </si>
+  <si>
+    <t>成功修改课程信息</t>
   </si>
   <si>
     <t>4 课程查询</t>
@@ -400,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -442,15 +454,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,14 +495,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,17 +516,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,17 +538,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,6 +555,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,30 +591,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -607,187 +619,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,6 +1180,54 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,45 +1247,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1237,15 +1258,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,10 +1289,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,137 +1301,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,7 +1521,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,6 +1566,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1871,10 +1892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N31"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1901,7 +1922,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="33"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" ht="15" spans="2:14">
       <c r="B2" s="3" t="s">
@@ -1918,7 +1939,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="34"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" ht="14.25" spans="2:14">
       <c r="B3" s="5" t="s">
@@ -1957,7 +1978,7 @@
       <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1988,7 +2009,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="36"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" ht="27" spans="2:14">
       <c r="B5" s="11"/>
@@ -2015,7 +2036,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="37"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" ht="27" spans="2:14">
       <c r="B6" s="11"/>
@@ -2042,7 +2063,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="37"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" ht="27.75" spans="2:14">
       <c r="B7" s="15"/>
@@ -2069,7 +2090,7 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" ht="27" spans="2:14">
       <c r="B8" s="11" t="s">
@@ -2098,7 +2119,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" ht="27" spans="2:14">
       <c r="B9" s="11"/>
@@ -2125,7 +2146,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="37"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" ht="27" spans="2:14">
       <c r="B10" s="11"/>
@@ -2150,7 +2171,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="37"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" ht="27" spans="2:14">
       <c r="B11" s="11"/>
@@ -2177,7 +2198,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="37"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" ht="112" customHeight="1" spans="2:14">
       <c r="B12" s="11"/>
@@ -2202,7 +2223,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="37"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" ht="109" customHeight="1" spans="2:14">
       <c r="B13" s="11"/>
@@ -2227,7 +2248,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="37"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" ht="40.5" spans="2:14">
       <c r="B14" s="11"/>
@@ -2254,7 +2275,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="37"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" ht="27" spans="2:14">
       <c r="B15" s="11"/>
@@ -2279,7 +2300,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="37"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" ht="27" spans="2:14">
       <c r="B16" s="11"/>
@@ -2304,7 +2325,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="37"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" ht="40.5" spans="2:14">
       <c r="B17" s="11"/>
@@ -2327,7 +2348,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="37"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" ht="40.5" spans="2:14">
       <c r="B18" s="25"/>
@@ -2352,7 +2373,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="37"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" ht="40.5" spans="2:14">
       <c r="B19" s="27" t="s">
@@ -2379,9 +2400,9 @@
         <v>89</v>
       </c>
       <c r="K19" s="14"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" ht="27" spans="2:14">
       <c r="B20" s="28"/>
@@ -2404,9 +2425,9 @@
         <v>92</v>
       </c>
       <c r="K20" s="14"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" ht="27" spans="2:14">
       <c r="B21" s="28"/>
@@ -2431,7 +2452,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="37"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" ht="40.5" spans="2:14">
       <c r="B22" s="28"/>
@@ -2454,9 +2475,9 @@
         <v>99</v>
       </c>
       <c r="K22" s="14"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" ht="27" spans="2:14">
       <c r="B23" s="28"/>
@@ -2481,7 +2502,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="37"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="28"/>
@@ -2508,9 +2529,9 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="37"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:14">
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="28"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
@@ -2533,127 +2554,129 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="37"/>
-    </row>
-    <row r="26" ht="27" spans="2:14">
-      <c r="B26" s="27" t="s">
+      <c r="N25" s="39"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:14">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="E26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" ht="27" spans="2:14">
+      <c r="B27" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="39"/>
-    </row>
-    <row r="27" ht="27" spans="2:14">
-      <c r="B27" s="28"/>
-      <c r="C27" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" ht="27" spans="2:14">
+      <c r="B28" s="11"/>
+      <c r="C28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="37"/>
-    </row>
-    <row r="28" ht="27" spans="2:14">
-      <c r="B28" s="28"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="37"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" ht="27" spans="2:14">
-      <c r="B29" s="28"/>
-      <c r="C29" s="21" t="s">
-        <v>118</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="37"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" ht="27" spans="2:14">
-      <c r="B30" s="28"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="D30" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -2661,37 +2684,62 @@
         <v>59</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="37"/>
-    </row>
-    <row r="31" ht="27.75" spans="2:14">
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="32" t="s">
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" ht="27" spans="2:14">
+      <c r="B31" s="11"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" ht="27.75" spans="2:14">
+      <c r="B32" s="15"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J32" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="42"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2699,15 +2747,15 @@
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
